--- a/Tiempos&Memoria.xlsx
+++ b/Tiempos&Memoria.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Programming\Varios\Caso3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8367129-400B-4D08-A251-719F5B15F5F7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA15C6FB-5AEA-4745-9131-2C7676F3DDF5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="1905" windowWidth="21600" windowHeight="11385" xr2:uid="{E645F655-4975-4DB0-A280-C0753BB968A3}"/>
+    <workbookView xWindow="1155" yWindow="3360" windowWidth="21600" windowHeight="11385" xr2:uid="{E645F655-4975-4DB0-A280-C0753BB968A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
   <si>
     <t>C</t>
   </si>
@@ -72,9 +72,6 @@
     <t>Tiempo 9</t>
   </si>
   <si>
-    <t>Tiempo 10</t>
-  </si>
-  <si>
     <t>Promedio</t>
   </si>
   <si>
@@ -111,20 +108,20 @@
     <t>Memoria 9</t>
   </si>
   <si>
-    <t>Memoria 10</t>
-  </si>
-  <si>
     <t>s</t>
   </si>
   <si>
     <t>b</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,6 +131,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -165,9 +170,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -186,10 +193,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{F385021A-89BC-462F-B730-758B91C70D93}" name="Tabla4" displayName="Tabla4" ref="G1:H5" totalsRowShown="0">
-  <autoFilter ref="G1:H5" xr:uid="{242D7312-4411-4194-B2FA-E3DB52B2D38F}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="G2:H5">
-    <sortCondition ref="G1:G5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{F385021A-89BC-462F-B730-758B91C70D93}" name="Tabla4" displayName="Tabla4" ref="H1:I5" totalsRowShown="0">
+  <autoFilter ref="H1:I5" xr:uid="{242D7312-4411-4194-B2FA-E3DB52B2D38F}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H2:I5">
+    <sortCondition ref="H1:H5"/>
   </sortState>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{89A6C699-E0A0-46E4-9C70-2CD5CDCC3B46}" name="Lenguaje"/>
@@ -496,388 +503,418 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F2F93B5-E8D1-472D-B84A-BD08C15C83A5}">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="8" max="8" width="11.85546875" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="3" t="s">
         <v>1</v>
-      </c>
-      <c r="G1" t="s">
-        <v>14</v>
       </c>
       <c r="H1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1000000</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>2E-3</v>
       </c>
       <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="G2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <f>$B$12</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+        <v>1.33919E-2</v>
+      </c>
+      <c r="F2">
+        <v>2.3641200000000001E-2</v>
+      </c>
+      <c r="H2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <f>$C$11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1000000</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>2E-3</v>
       </c>
       <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="G3" t="s">
+        <v>1.2895999999999999E-2</v>
+      </c>
+      <c r="F3">
+        <v>2.36174E-2</v>
+      </c>
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3">
+        <f>$D$11</f>
+        <v>1.9333333333333334E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1000000</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>2E-3</v>
+      </c>
+      <c r="E4">
+        <v>1.2896100000000001E-2</v>
+      </c>
+      <c r="F4">
+        <v>2.38681E-2</v>
+      </c>
+      <c r="H4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <f>$E$11</f>
+        <v>6.3367555555555566E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>10000000</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>1.9E-2</v>
+      </c>
+      <c r="E5">
+        <v>6.0043899999999997E-2</v>
+      </c>
+      <c r="F5">
+        <v>0.28786840000000002</v>
+      </c>
+      <c r="H5" t="s">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <f>$F$11</f>
+        <v>0.21332144777777776</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>10000000</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="E6">
+        <v>6.3979900000000006E-2</v>
+      </c>
+      <c r="F6">
+        <v>0.2452937</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>10000000</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="E7">
+        <v>6.2492600000000002E-2</v>
+      </c>
+      <c r="F7">
+        <v>0.241088</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>20000000</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="E8">
+        <v>0.11694259999999999</v>
+      </c>
+      <c r="F8">
+        <v>0.5064012</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>20000000</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="E9">
+        <v>0.1120966</v>
+      </c>
+      <c r="F9">
+        <v>4.7913629999999999E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>20000000</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0.04</v>
+      </c>
+      <c r="E10">
+        <v>0.1155684</v>
+      </c>
+      <c r="F10">
+        <v>0.52020140000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="1">
+        <f>AVERAGE(C2:C10)</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="1">
+        <f>AVERAGE(D2:D10)</f>
+        <v>1.9333333333333334E-2</v>
+      </c>
+      <c r="E11" s="1">
+        <f>AVERAGE(E2:E10)</f>
+        <v>6.3367555555555566E-2</v>
+      </c>
+      <c r="F11" s="1">
+        <f>AVERAGE(F2:F10)</f>
+        <v>0.21332144777777776</v>
+      </c>
+      <c r="G11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1000000</v>
+      </c>
+      <c r="B14" t="s">
         <v>15</v>
       </c>
-      <c r="H3">
-        <f>$C$12</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="G4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H4">
-        <f>$D$12</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="G5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <f>$E$12</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>8777728</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1000000</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>8777728</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1000000</v>
+      </c>
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>8781824</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>10000000</v>
+      </c>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>44785664</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>10000000</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>44777472</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>10000000</v>
+      </c>
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>44797952</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>20000000</v>
+      </c>
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>84779008</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20000000</v>
+      </c>
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>84779008</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20000000</v>
+      </c>
+      <c r="B22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>84783104</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="1">
-        <f>AVERAGE(B2:B11)</f>
-        <v>0</v>
-      </c>
-      <c r="C12" s="1">
-        <f t="shared" ref="C12:E12" si="0">AVERAGE(C2:C11)</f>
-        <v>0</v>
-      </c>
-      <c r="D12" s="1">
-        <f>AVERAGE(D2:D11)</f>
-        <v>0</v>
-      </c>
-      <c r="E12" s="1">
-        <f>AVERAGE(E2:E11)</f>
-        <v>0</v>
-      </c>
-      <c r="F12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="C23" s="1">
+        <f>AVERAGE(C14:C22)</f>
+        <v>0</v>
+      </c>
+      <c r="D23" s="1">
+        <f>AVERAGE(D14:D22)</f>
+        <v>46115498.666666664</v>
+      </c>
+      <c r="E23" t="s">
         <v>25</v>
-      </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24" s="1">
-        <f>AVERAGE(B14:B23)</f>
-        <v>0</v>
-      </c>
-      <c r="C24" s="1">
-        <f>AVERAGE(C14:C23)</f>
-        <v>0</v>
-      </c>
-      <c r="D24" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B24:C24">
+  <conditionalFormatting sqref="C23:D23">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -890,8 +927,9 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Tiempos&Memoria.xlsx
+++ b/Tiempos&Memoria.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Programming\Varios\Caso3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA15C6FB-5AEA-4745-9131-2C7676F3DDF5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61E1A6D2-8A4E-4F64-83FC-07ADA7863996}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1155" yWindow="3360" windowWidth="21600" windowHeight="11385" xr2:uid="{E645F655-4975-4DB0-A280-C0753BB968A3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E645F655-4975-4DB0-A280-C0753BB968A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -196,7 +196,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{F385021A-89BC-462F-B730-758B91C70D93}" name="Tabla4" displayName="Tabla4" ref="H1:I5" totalsRowShown="0">
   <autoFilter ref="H1:I5" xr:uid="{242D7312-4411-4194-B2FA-E3DB52B2D38F}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H2:I5">
-    <sortCondition ref="H1:H5"/>
+    <sortCondition ref="I1:I5"/>
   </sortState>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{89A6C699-E0A0-46E4-9C70-2CD5CDCC3B46}" name="Lenguaje"/>
@@ -506,7 +506,7 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -546,7 +546,7 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>2E-3</v>
       </c>
       <c r="D2">
         <v>2E-3</v>
@@ -558,11 +558,11 @@
         <v>2.3641200000000001E-2</v>
       </c>
       <c r="H2" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="I2">
-        <f>$C$11</f>
-        <v>0</v>
+        <f>$D$11</f>
+        <v>1.988888888888889E-2</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -573,7 +573,7 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>2E-3</v>
       </c>
       <c r="D3">
         <v>2E-3</v>
@@ -585,11 +585,11 @@
         <v>2.36174E-2</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <f>$D$11</f>
-        <v>1.9333333333333334E-2</v>
+        <f>$C$11</f>
+        <v>5.7555555555555554E-2</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -600,10 +600,10 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>2E-3</v>
       </c>
       <c r="D4">
-        <v>2E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="E4">
         <v>1.2896100000000001E-2</v>
@@ -627,10 +627,10 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="D5">
-        <v>1.9E-2</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="E5">
         <v>6.0043899999999997E-2</v>
@@ -654,10 +654,10 @@
         <v>7</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="D6">
-        <v>1.7999999999999999E-2</v>
+        <v>1.9E-2</v>
       </c>
       <c r="E6">
         <v>6.3979900000000006E-2</v>
@@ -674,10 +674,10 @@
         <v>8</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>1.9E-2</v>
       </c>
       <c r="D7">
-        <v>1.7000000000000001E-2</v>
+        <v>1.9E-2</v>
       </c>
       <c r="E7">
         <v>6.2492600000000002E-2</v>
@@ -694,10 +694,10 @@
         <v>9</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="D8">
-        <v>3.6999999999999998E-2</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="E8">
         <v>0.11694259999999999</v>
@@ -714,10 +714,10 @@
         <v>10</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="D9">
-        <v>3.6999999999999998E-2</v>
+        <v>3.9E-2</v>
       </c>
       <c r="E9">
         <v>0.1120966</v>
@@ -734,10 +734,10 @@
         <v>11</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="D10">
-        <v>0.04</v>
+        <v>3.9E-2</v>
       </c>
       <c r="E10">
         <v>0.1155684</v>
@@ -752,11 +752,11 @@
       </c>
       <c r="C11" s="1">
         <f>AVERAGE(C2:C10)</f>
-        <v>0</v>
+        <v>5.7555555555555554E-2</v>
       </c>
       <c r="D11" s="1">
         <f>AVERAGE(D2:D10)</f>
-        <v>1.9333333333333334E-2</v>
+        <v>1.988888888888889E-2</v>
       </c>
       <c r="E11" s="1">
         <f>AVERAGE(E2:E10)</f>
@@ -778,10 +778,10 @@
         <v>15</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>8798208</v>
       </c>
       <c r="D14">
-        <v>8777728</v>
+        <v>8798208</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -792,7 +792,7 @@
         <v>16</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>8749056</v>
       </c>
       <c r="D15">
         <v>8777728</v>
@@ -806,10 +806,10 @@
         <v>17</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>8753152</v>
       </c>
       <c r="D16">
-        <v>8781824</v>
+        <v>8785920</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -820,10 +820,10 @@
         <v>18</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>44777472</v>
       </c>
       <c r="D17">
-        <v>44785664</v>
+        <v>44797952</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -834,10 +834,10 @@
         <v>19</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>44777472</v>
       </c>
       <c r="D18">
-        <v>44777472</v>
+        <v>44785664</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -848,10 +848,10 @@
         <v>20</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>44781568</v>
       </c>
       <c r="D19">
-        <v>44797952</v>
+        <v>44785664</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -862,10 +862,10 @@
         <v>21</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>84783104</v>
       </c>
       <c r="D20">
-        <v>84779008</v>
+        <v>84799488</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -876,10 +876,10 @@
         <v>22</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>84774912</v>
       </c>
       <c r="D21">
-        <v>84779008</v>
+        <v>84803584</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -890,7 +890,7 @@
         <v>23</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>84774912</v>
       </c>
       <c r="D22">
         <v>84783104</v>
@@ -902,11 +902,11 @@
       </c>
       <c r="C23" s="1">
         <f>AVERAGE(C14:C22)</f>
-        <v>0</v>
+        <v>46107761.777777776</v>
       </c>
       <c r="D23" s="1">
         <f>AVERAGE(D14:D22)</f>
-        <v>46115498.666666664</v>
+        <v>46124145.777777776</v>
       </c>
       <c r="E23" t="s">
         <v>25</v>
